--- a/data/hotels_by_city/Denver/Denver_shard_171.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_171.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,9 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33641-d675950-Reviews-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +142,78 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r373865583-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>33641</t>
+  </si>
+  <si>
+    <t>675950</t>
+  </si>
+  <si>
+    <t>373865583</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>It's great</t>
+  </si>
+  <si>
+    <t>The rates are great, front desk very kind and knowledgeable. Christine is awesome!  The rest of the crew, is Great. If you need somewhere for a week or more, this is your place. Close to many different stores, right off the freeway. Service animal freindly, washer/dryer rates are reasonable.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r277922315-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>277922315</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>We stayed at this property instead of the Aurora one because of the significantly better reviews. Those were downright scary!   We had good luck with the one Indiana.  It was a wonderful stay here as well.  Thank you!!!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r197202771-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>197202771</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Outstanding Accommodations</t>
+  </si>
+  <si>
+    <t>My experience during my stay has been terrific!  The staff is exceptionally courteous and friendly at all times. Any need or concern has always been promptly addressed as well. I have extended my stay four months as of now and couldn't be more satisfied with my room and accommodations. I would highly recommend InTown Suites to anyone looking for a very reasonably priced and comfortable hotel! :)</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -532,11 +607,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +637,264 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_171.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_171.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>STR#</t>
   </si>
@@ -144,18 +144,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/03/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r521975601-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>33641</t>
+  </si>
+  <si>
+    <t>675950</t>
+  </si>
+  <si>
+    <t>521975601</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service makes all the difference!!!</t>
+  </si>
+  <si>
+    <t>I have been staying at the InTown Suites for a few weeks now.  It's really kept pretty nice for a lower priced extended stay hotel.  I have also never had the incredible choice of channels as here at InTown.  All my favorite Sports channels and news networks.What made the biggest difference was an employee/manager named Sean.  He was kind even as I was first moving in.  Without being asked, he opened my hotel door when I didn't have a free hand, carrying a ton of baggage.Sean seems to really appreciate his guests and because of his treatment and excellent customer service skills, I plan to stay longer than planned and will recommend this hotel to anyone looking for a clean and desirable hotel with folks like Sean and his staff to make it just a little bit more enjoyable.  Thanks SeanMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I have been staying at the InTown Suites for a few weeks now.  It's really kept pretty nice for a lower priced extended stay hotel.  I have also never had the incredible choice of channels as here at InTown.  All my favorite Sports channels and news networks.What made the biggest difference was an employee/manager named Sean.  He was kind even as I was first moving in.  Without being asked, he opened my hotel door when I didn't have a free hand, carrying a ton of baggage.Sean seems to really appreciate his guests and because of his treatment and excellent customer service skills, I plan to stay longer than planned and will recommend this hotel to anyone looking for a clean and desirable hotel with folks like Sean and his staff to make it just a little bit more enjoyable.  Thanks SeanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r406796045-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>406796045</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Not Traveler Friendly</t>
+  </si>
+  <si>
+    <t>This facility is not a traveler friendly place. This appears to be a long-term, possibly subsidized, low income residential facility. They had one rental unit available. They were booked in January and were we not satisfied with the room, they had no others. This facility is not the cleanest place I've ever seen, but not the worst.Signs all over say no pets, but many people have them.Many residents loiter in the parking lot at all hours; day and night. If I were a women travelling alone or with small children, I would have been concerned.The office is not staffed around the clock. This should have been my first clue that something was not quite right about this place.This facility should definitely NOT claim to be a hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This facility is not a traveler friendly place. This appears to be a long-term, possibly subsidized, low income residential facility. They had one rental unit available. They were booked in January and were we not satisfied with the room, they had no others. This facility is not the cleanest place I've ever seen, but not the worst.Signs all over say no pets, but many people have them.Many residents loiter in the parking lot at all hours; day and night. If I were a women travelling alone or with small children, I would have been concerned.The office is not staffed around the clock. This should have been my first clue that something was not quite right about this place.This facility should definitely NOT claim to be a hotel!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r373865583-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
   </si>
   <si>
-    <t>33641</t>
-  </si>
-  <si>
-    <t>675950</t>
-  </si>
-  <si>
     <t>373865583</t>
   </si>
   <si>
@@ -171,9 +219,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r277922315-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
   </si>
   <si>
@@ -214,6 +259,24 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33641-d675950-r185547108-InTown_Suites_Denver_West-Sheridan_Colorado.html</t>
+  </si>
+  <si>
+    <t>185547108</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Great staff and clean room</t>
+  </si>
+  <si>
+    <t>The front desk is always friendly and very helpful! The rooms are very clean, and have a full size refrigerator. The internet connection could be better, though it is free wifi where other similar places charge a fee. Overall for the price this is a good hotel. Very convenient location, and as I mentioned before the Man at the front desk has the perfect personality for his job. Outgoing, friendly, knowledgeable, and gets things taken care of quick!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
 </sst>
 </file>
@@ -755,18 +818,22 @@
         <v>51</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +849,7 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -791,43 +858,39 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -852,49 +915,234 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39442</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
